--- a/Crime_Data.xlsx
+++ b/Crime_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanja\OneDrive\Desktop\Capstone-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8C2BDE-F264-4BD3-9C9D-824045929F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E6FB8E-7646-4511-BD1A-BD6C1BF61C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{49E6B814-21DC-41A7-8B53-12485EED3DEE}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{49E6B814-21DC-41A7-8B53-12485EED3DEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Literacy" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
   <si>
     <t>A&amp;N islands</t>
   </si>
   <si>
     <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Arunachal Pradesh</t>
@@ -691,429 +688,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502D8C88-66D9-492F-B764-F179982D897E}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C1" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>86.63</v>
-      </c>
-      <c r="C2" s="2">
         <v>86.27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>67.02</v>
-      </c>
-      <c r="C3" s="2">
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>66.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>65.38</v>
-      </c>
-      <c r="C4" s="2">
-        <v>66.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>72.19</v>
-      </c>
-      <c r="C5" s="2">
-        <v>85.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>61.8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>70.900000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2">
+        <v>86.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>86.05</v>
-      </c>
-      <c r="C7" s="2">
-        <v>86.43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>70.28</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B9" s="2">
+        <v>77.650000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>87.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
         <v>77.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>76.239999999999995</v>
-      </c>
-      <c r="C9" s="2">
-        <v>77.650000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>87.1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>87.07</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>86.21</v>
-      </c>
-      <c r="C11" s="2">
-        <v>88.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>88.7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>87.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>78.03</v>
-      </c>
-      <c r="C13" s="2">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>75.55</v>
-      </c>
-      <c r="C14" s="2">
-        <v>80.400000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>82.8</v>
-      </c>
-      <c r="C15" s="2">
-        <v>86.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
-        <v>67.16</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B17" s="2">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>92.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>79.849999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>75.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>91.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>80.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
         <v>77.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>66.41</v>
-      </c>
-      <c r="C17" s="2">
-        <v>74.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>75.36</v>
-      </c>
-      <c r="C18" s="2">
-        <v>77.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>94</v>
-      </c>
-      <c r="C19" s="2">
-        <v>96.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>91.85</v>
-      </c>
-      <c r="C20" s="2">
-        <v>92.28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>69.319999999999993</v>
-      </c>
-      <c r="C21" s="2">
-        <v>73.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>82.34</v>
-      </c>
-      <c r="C22" s="2">
-        <v>84.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>76.94</v>
-      </c>
-      <c r="C23" s="2">
-        <v>79.849999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>74.430000000000007</v>
-      </c>
-      <c r="C24" s="2">
-        <v>75.48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>91.33</v>
-      </c>
-      <c r="C25" s="2">
-        <v>91.58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>79.55</v>
-      </c>
-      <c r="C26" s="2">
-        <v>80.11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
-        <v>72.87</v>
-      </c>
-      <c r="C27" s="2">
-        <v>77.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2">
+        <v>86.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
-        <v>85.85</v>
-      </c>
-      <c r="C28" s="2">
-        <v>86.55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
-        <v>75.84</v>
-      </c>
-      <c r="C29" s="2">
-        <v>83.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
-        <v>66.11</v>
-      </c>
-      <c r="C30" s="2">
-        <v>69.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
-        <v>81.42</v>
-      </c>
-      <c r="C31" s="2">
-        <v>82.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
-        <v>80.33</v>
-      </c>
-      <c r="C32" s="2">
-        <v>82.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2">
-        <v>72.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="2">
+        <v>87.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
-        <v>87.22</v>
-      </c>
-      <c r="C34" s="2">
-        <v>87.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
-        <v>67.680000000000007</v>
-      </c>
-      <c r="C35" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="2">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
-        <v>78.819999999999993</v>
-      </c>
-      <c r="C36" s="2">
-        <v>87.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="2">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="C37" s="2">
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="B38" s="2">
-        <v>74.040000000000006</v>
-      </c>
-      <c r="C38" s="2">
         <v>77.7</v>
       </c>
     </row>
@@ -1140,25 +1023,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1183,7 +1066,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>6096310</v>
@@ -1229,7 +1112,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>3039</v>
@@ -1252,7 +1135,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>133239</v>
@@ -1275,7 +1158,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>282083</v>
@@ -1298,7 +1181,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>110633</v>
@@ -1321,7 +1204,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2991</v>
@@ -1344,7 +1227,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>731738</v>
@@ -1367,7 +1250,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>206431</v>
@@ -1390,7 +1273,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>18833</v>
@@ -1413,7 +1296,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>60765</v>
@@ -1436,7 +1319,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>163697</v>
@@ -1459,7 +1342,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>524960</v>
@@ -1482,7 +1365,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>475918</v>
@@ -1505,7 +1388,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>540800</v>
@@ -1528,7 +1411,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>3204</v>
@@ -1551,7 +1434,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>3428</v>
@@ -1574,7 +1457,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>3196</v>
@@ -1597,7 +1480,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>1478</v>
@@ -1620,7 +1503,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>155420</v>
@@ -1643,7 +1526,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>73581</v>
@@ -1666,7 +1549,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>284569</v>
@@ -1689,7 +1572,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>728</v>
@@ -1712,7 +1595,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>756753</v>
@@ -1735,7 +1618,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>158809</v>
@@ -1758,7 +1641,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>4788</v>
@@ -1781,7 +1664,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>608082</v>
@@ -1804,7 +1687,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>34875</v>
@@ -1827,7 +1710,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>181821</v>
@@ -1850,7 +1733,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>1332</v>
@@ -1873,7 +1756,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>2995</v>
@@ -1896,7 +1779,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>579</v>
@@ -1919,7 +1802,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>306389</v>
@@ -1942,7 +1825,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>31675</v>
@@ -1965,7 +1848,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>559</v>
@@ -1988,7 +1871,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38">
         <v>128</v>
@@ -2011,7 +1894,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>4595</v>
@@ -2041,7 +1924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFF355A-F630-41B0-ADA0-818973E3C0C4}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2061,39 +1944,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2">
         <v>6337</v>
@@ -2125,7 +2008,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2">
         <v>17882</v>
@@ -2157,7 +2040,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2">
         <v>12168</v>
@@ -2189,7 +2072,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -2221,7 +2104,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2">
         <v>15745</v>
@@ -2253,7 +2136,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2">
         <v>6642</v>
@@ -2285,7 +2168,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>103</v>
@@ -2317,7 +2200,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2">
         <v>43264</v>
@@ -2349,7 +2232,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2">
         <v>97814</v>
@@ -2381,7 +2264,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2">
         <v>39073</v>
@@ -2413,7 +2296,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2">
         <v>425</v>
@@ -2445,7 +2328,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2">
         <v>5258</v>
@@ -2477,7 +2360,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2">
         <v>1400</v>
@@ -2509,7 +2392,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2">
         <v>2515</v>
@@ -2541,7 +2424,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2">
         <v>704</v>
@@ -2573,7 +2456,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2">
         <v>863</v>
@@ -2605,7 +2488,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="2">
         <v>6459</v>
@@ -2637,7 +2520,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="2">
         <v>25372</v>
@@ -2669,7 +2552,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="2">
         <v>37469</v>
@@ -2701,7 +2584,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="2">
         <v>29492</v>
@@ -2733,7 +2616,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2">
         <v>47675</v>
@@ -2765,7 +2648,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2">
         <v>19567</v>
@@ -2797,7 +2680,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2">
         <v>51929</v>
@@ -2829,7 +2712,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="2">
         <v>17843</v>
@@ -2861,7 +2744,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="2">
         <v>19</v>
@@ -2893,7 +2776,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="2">
         <v>65</v>
@@ -2925,7 +2808,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="2">
         <v>40959</v>
@@ -2957,7 +2840,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="2">
         <v>26286</v>
@@ -2989,7 +2872,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="2">
         <v>27397</v>
@@ -3021,7 +2904,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="2">
         <v>320</v>
@@ -3053,7 +2936,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="2">
         <v>6</v>
@@ -3085,7 +2968,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="2">
         <v>1017</v>
@@ -3117,7 +3000,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="2">
         <v>15049</v>
@@ -3149,7 +3032,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2">
         <v>90</v>
@@ -3181,7 +3064,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="2">
         <v>396</v>

--- a/Crime_Data.xlsx
+++ b/Crime_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E6FB8E-7646-4511-BD1A-BD6C1BF61C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6B9412-85DE-49E5-A11F-2A9A5F9067D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{49E6B814-21DC-41A7-8B53-12485EED3DEE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{49E6B814-21DC-41A7-8B53-12485EED3DEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Literacy" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>A&amp;N islands</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>ANDAMAN &amp; NICOBAR ISLANDS</t>
+  </si>
+  <si>
+    <t>Literacy Rate</t>
   </si>
 </sst>
 </file>
@@ -690,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502D8C88-66D9-492F-B764-F179982D897E}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,8 +703,8 @@
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1">
-        <v>2022</v>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1009,7 +1012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790EC578-E15C-4F80-806E-7E8ECB8EE6A3}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Crime_Data.xlsx
+++ b/Crime_Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6B9412-85DE-49E5-A11F-2A9A5F9067D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0179011-E10E-43DB-B52D-DB8C08FB6881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{49E6B814-21DC-41A7-8B53-12485EED3DEE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{49E6B814-21DC-41A7-8B53-12485EED3DEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Literacy" sheetId="1" r:id="rId1"/>
     <sheet name="Crime" sheetId="2" r:id="rId2"/>
-    <sheet name="Population" sheetId="3" r:id="rId3"/>
+    <sheet name="Crime_type" sheetId="4" r:id="rId3"/>
+    <sheet name="Population" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
   <si>
     <t>A&amp;N islands</t>
   </si>
@@ -311,13 +312,46 @@
   </si>
   <si>
     <t>Literacy Rate</t>
+  </si>
+  <si>
+    <t>State / UT</t>
+  </si>
+  <si>
+    <t>Violent Crimes</t>
+  </si>
+  <si>
+    <t>Murder</t>
+  </si>
+  <si>
+    <t>Rape</t>
+  </si>
+  <si>
+    <t>Kidnapping</t>
+  </si>
+  <si>
+    <t>Crimes Against Children</t>
+  </si>
+  <si>
+    <t>Extortion</t>
+  </si>
+  <si>
+    <t>Robbery</t>
+  </si>
+  <si>
+    <t>Hit &amp; Run</t>
+  </si>
+  <si>
+    <t>Drugs Trafficking</t>
+  </si>
+  <si>
+    <t>Illegal Arms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,16 +367,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAECF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDEAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -365,11 +430,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -377,6 +457,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790EC578-E15C-4F80-806E-7E8ECB8EE6A3}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1926,6 +2016,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC5C43F-3E13-4962-AC42-310307334890}">
+  <dimension ref="A1:K38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6">
+        <v>30.2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="E2" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="F2" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>13.7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="F3" s="7">
+        <v>17.7</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>27.5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="F5" s="7">
+        <v>43.7</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>35.4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F6" s="7">
+        <v>14.5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>28.6</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="E7" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>61.6</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="F8" s="7">
+        <v>39.5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J8" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F9" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43.3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="K10" s="7">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>34.4</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="7">
+        <v>14.7</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7">
+        <v>34.9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F12" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7">
+        <v>22.8</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="F13" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>48.2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7">
+        <v>30.7</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>66.7</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="I15" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J15" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K15" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7">
+        <v>35.1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="F16" s="7">
+        <v>47.8</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="F17" s="7">
+        <v>13.8</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="J17" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="F18" s="7">
+        <v>34.9</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>28.9</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F20" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="K20" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="7">
+        <v>48.6</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="E21" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="F21" s="7">
+        <v>54.8</v>
+      </c>
+      <c r="G21" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H21" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="7">
+        <v>20.8</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="F22" s="7">
+        <v>29.2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>19</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="7">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D23" s="7">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E23" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F23" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="K23" s="7">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="E24" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="F24" s="7">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J24" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="7">
+        <v>16.2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F25" s="7">
+        <v>29.3</v>
+      </c>
+      <c r="G25" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J25" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E26" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="F26" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="7">
+        <v>40.1</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="F27" s="7">
+        <v>19.2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="J27" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="7">
+        <v>22.7</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="E28" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="F28" s="7">
+        <v>19.7</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I28" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="J28" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="K28" s="7">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="E29" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="F29" s="7">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I29" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="J29" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="K29" s="7">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="7">
+        <v>48.7</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E30" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="F30" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="F31" s="7">
+        <v>110.4</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="7">
+        <v>29.9</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="E32" s="7">
+        <v>12.7</v>
+      </c>
+      <c r="F32" s="7">
+        <v>72.2</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="J32" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E33" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="F33" s="7">
+        <v>54.1</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="7">
+        <v>57</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D34" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="E34" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="F34" s="7">
+        <v>128.5</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H34" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="K34" s="7">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E35" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F35" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="J35" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>85.4</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="7">
+        <v>12.1</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E38" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="F38" s="7">
+        <v>34</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFF355A-F630-41B0-ADA0-818973E3C0C4}">
   <dimension ref="A1:J36"/>
   <sheetViews>

--- a/Crime_Data.xlsx
+++ b/Crime_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0179011-E10E-43DB-B52D-DB8C08FB6881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FBE042-A83A-4241-BB67-9B2DE0AAACBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{49E6B814-21DC-41A7-8B53-12485EED3DEE}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
   <si>
     <t>A&amp;N islands</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>Literacy Rate</t>
-  </si>
-  <si>
-    <t>State / UT</t>
   </si>
   <si>
     <t>Violent Crimes</t>
@@ -449,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -466,7 +463,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1102,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790EC578-E15C-4F80-806E-7E8ECB8EE6A3}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2019,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC5C43F-3E13-4962-AC42-310307334890}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2030,41 +2026,41 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="6">
@@ -2099,7 +2095,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7">
@@ -2134,7 +2130,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7">
@@ -2169,7 +2165,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="7">
@@ -2204,7 +2200,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7">
@@ -2239,7 +2235,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7">
@@ -2274,7 +2270,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7">
@@ -2309,7 +2305,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7">
@@ -2344,7 +2340,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="7">
@@ -2379,7 +2375,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7">
@@ -2414,7 +2410,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="7">
@@ -2449,7 +2445,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="7">
@@ -2484,7 +2480,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="7">
@@ -2519,7 +2515,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="8" t="s">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="7">
@@ -2554,7 +2550,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="8" t="s">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="7">
@@ -2589,7 +2585,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="7">
@@ -2624,7 +2620,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="7">
@@ -2659,7 +2655,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8" t="s">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="7">
@@ -2694,7 +2690,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8" t="s">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="7">
@@ -2729,7 +2725,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="8" t="s">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="7">
@@ -2764,7 +2760,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="8" t="s">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="7">
@@ -2799,7 +2795,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="8" t="s">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="7">
@@ -2834,7 +2830,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="8" t="s">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="7">
@@ -2869,7 +2865,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="8" t="s">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7">
@@ -2904,7 +2900,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="8" t="s">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="7">
@@ -2939,7 +2935,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="7">
@@ -2974,7 +2970,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="8" t="s">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="7">
@@ -3009,7 +3005,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="8" t="s">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="7">
@@ -3044,7 +3040,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="8" t="s">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="7">
@@ -3079,7 +3075,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="8" t="s">
+      <c r="A31" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="7">
@@ -3114,7 +3110,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="8" t="s">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="7">
@@ -3149,7 +3145,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="8" t="s">
+      <c r="A33" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="7">
@@ -3184,7 +3180,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="8" t="s">
+      <c r="A34" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="7">
@@ -3219,7 +3215,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="8" t="s">
+      <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="7">
@@ -3254,7 +3250,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="8" t="s">
+      <c r="A36" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="7">
@@ -3289,7 +3285,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="8" t="s">
+      <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="7">
@@ -3324,7 +3320,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="8" t="s">
+      <c r="A38" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="7">
